--- a/01-Param-Phast82/EMTTP-Phast82-09Jun20.xlsx
+++ b/01-Param-Phast82/EMTTP-Phast82-09Jun20.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srnorvpsmac/Library/Mobile Documents/com~apple~CloudDocs/2-Python Git/03-ExcelMultiTabTablePivoter/00-EMTTP-Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srnorvpsmac/Library/Mobile Documents/com~apple~CloudDocs/2-Python Git/03-ExcelMultiTabTablePivoter/00-EMTTP-Source/01-Param-Phast82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFB321E-B861-C746-9AF2-EE70F2F2F59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9506E5F5-0F75-624F-911B-267B725B7A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{99005856-F301-2C4A-9114-8653447C74C5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="1" xr2:uid="{99005856-F301-2C4A-9114-8653447C74C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Transform" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
   <si>
     <t>Flammable Dispersion</t>
   </si>
@@ -144,79 +144,115 @@
     <t>Fireball</t>
   </si>
   <si>
-    <t>Flame@@d</t>
-  </si>
-  <si>
-    <t>0.021@@d</t>
-  </si>
-  <si>
-    <t>0.138@@d</t>
-  </si>
-  <si>
-    <t>0.207@@d</t>
-  </si>
-  <si>
     <t>strIdx</t>
   </si>
   <si>
-    <t>hFL@@dist1</t>
-  </si>
-  <si>
-    <t>hFL@@dist2</t>
-  </si>
-  <si>
-    <t>hFL@@dist3</t>
-  </si>
-  <si>
-    <t>hFL@@dist4</t>
-  </si>
-  <si>
-    <t>LFL@@dist1</t>
-  </si>
-  <si>
-    <t>LFL@@dist2</t>
-  </si>
-  <si>
-    <t>LFL@@dist3</t>
-  </si>
-  <si>
-    <t>LFL@@dist4</t>
-  </si>
-  <si>
-    <t>06.3@@dist1</t>
-  </si>
-  <si>
-    <t>06.3@@dist2</t>
-  </si>
-  <si>
-    <t>06.3@@dist3</t>
-  </si>
-  <si>
-    <t>06.3@@dist4</t>
-  </si>
-  <si>
-    <t>12.5@@dist1</t>
-  </si>
-  <si>
-    <t>12.5@@dist2</t>
-  </si>
-  <si>
-    <t>12.5@@dist3</t>
-  </si>
-  <si>
-    <t>12.5@@dist4</t>
-  </si>
-  <si>
-    <t>37.5@@dist1</t>
-  </si>
-  <si>
-    <t>37.5@@dist2</t>
-  </si>
-  <si>
-    <t>37.5@@dist3</t>
-  </si>
-  <si>
-    <t>37.5@@dist4</t>
+    <t>hFL@@Param1</t>
+  </si>
+  <si>
+    <t>hFL@@Param2</t>
+  </si>
+  <si>
+    <t>hFL@@Param3</t>
+  </si>
+  <si>
+    <t>hFL@@Param4</t>
+  </si>
+  <si>
+    <t>LFL@@Param1</t>
+  </si>
+  <si>
+    <t>LFL@@Param2</t>
+  </si>
+  <si>
+    <t>LFL@@Param3</t>
+  </si>
+  <si>
+    <t>LFL@@Param4</t>
+  </si>
+  <si>
+    <t>06.3@@Param1</t>
+  </si>
+  <si>
+    <t>06.3@@Param2</t>
+  </si>
+  <si>
+    <t>06.3@@Param3</t>
+  </si>
+  <si>
+    <t>06.3@@Param4</t>
+  </si>
+  <si>
+    <t>12.5@@Param1</t>
+  </si>
+  <si>
+    <t>12.5@@Param2</t>
+  </si>
+  <si>
+    <t>12.5@@Param3</t>
+  </si>
+  <si>
+    <t>12.5@@Param4</t>
+  </si>
+  <si>
+    <t>37.5@@Param1</t>
+  </si>
+  <si>
+    <t>37.5@@Param2</t>
+  </si>
+  <si>
+    <t>37.5@@Param3</t>
+  </si>
+  <si>
+    <t>37.5@@Param4</t>
+  </si>
+  <si>
+    <t>Flame@@Param1</t>
+  </si>
+  <si>
+    <t>0.021@@Param1</t>
+  </si>
+  <si>
+    <t>0.138@@Param1</t>
+  </si>
+  <si>
+    <t>0.207@@Param1</t>
+  </si>
+  <si>
+    <t>strTar</t>
+  </si>
+  <si>
+    <t>strTrans</t>
+  </si>
+  <si>
+    <t>x.Param1</t>
+  </si>
+  <si>
+    <t>x.Param3 / 2</t>
+  </si>
+  <si>
+    <t>x.Param2</t>
+  </si>
+  <si>
+    <t>x.Param4</t>
+  </si>
+  <si>
+    <t>x.Param4 - x.Param2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>P1-d</t>
+  </si>
+  <si>
+    <t>P2-c</t>
+  </si>
+  <si>
+    <t>P3-s</t>
+  </si>
+  <si>
+    <t>P4-m</t>
   </si>
 </sst>
 </file>
@@ -571,15 +607,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AB67E4-431A-FA42-86CC-818EDED7F08E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -590,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -634,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -678,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,7 +791,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -777,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -799,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,7 +879,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -854,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,7 +912,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -964,7 +1000,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -975,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,7 +1022,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -999,14 +1035,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FEFE13-3E3C-1B48-BB96-5C50635A09B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>